--- a/KreditiFulm2.xlsx
+++ b/KreditiFulm2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBEEF78-FFAE-4283-99EE-2AE86AC1EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{60693B89-26AF-4966-9C78-61F04A76036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2ABA72-0DF5-4CDC-8599-DA56E90487E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>Банка</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>ОбезбеМКД</t>
-  </si>
-  <si>
-    <t>МКД</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -598,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +660,7 @@
     </row>
     <row r="2" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -681,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -696,7 +693,7 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>20</v>
@@ -704,7 +701,7 @@
     </row>
     <row r="3" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -722,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -737,7 +734,7 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>20</v>
@@ -745,7 +742,7 @@
     </row>
     <row r="4" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -763,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -778,7 +775,7 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>20</v>
@@ -786,7 +783,7 @@
     </row>
     <row r="5" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -804,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -819,7 +816,7 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>20</v>
@@ -845,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -860,7 +857,7 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>20</v>
@@ -868,7 +865,7 @@
     </row>
     <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -886,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -901,7 +898,7 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>20</v>
@@ -909,7 +906,7 @@
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -927,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -942,7 +939,7 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>20</v>
@@ -968,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -983,7 +980,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>20</v>
@@ -991,7 +988,7 @@
     </row>
     <row r="10" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1009,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1024,7 +1021,7 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>20</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1050,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1065,7 +1062,7 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1091,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1103,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>20</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1187,7 +1184,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>

--- a/KreditiFulm2.xlsx
+++ b/KreditiFulm2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{60693B89-26AF-4966-9C78-61F04A76036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2ABA72-0DF5-4CDC-8599-DA56E90487E9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8B3FBCCA-9CF5-4211-B6EA-D3A505EB1F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C8864FC-E87E-49B0-BC19-43C8E75318F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Банка</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>ФУЛМ Штедилница д.о.о. - Скопје</t>
+  </si>
+  <si>
+    <t>ЕУР5</t>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
